--- a/DbpfLibrary_SerializationTasks.xlsx
+++ b/DbpfLibrary_SerializationTasks.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whowa\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whowa\Documents\Visual Studio 2022\Projects\Sims2Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{354266BE-0477-4D13-BD1D-20FCA91D5740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D066A7-3992-45E4-BCB2-F738A4521501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30540" yWindow="0" windowWidth="22770" windowHeight="15480" xr2:uid="{4C40361C-D083-4591-964A-C1B02BD7D2C7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C40361C-D083-4591-964A-C1B02BD7D2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -394,9 +394,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -434,7 +434,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -540,7 +540,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -682,7 +682,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -692,8 +692,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F640CAFF-D0A9-44CF-A502-7EBF160B06D4}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1103,6 +1103,7 @@
         <v>68</v>
       </c>
       <c r="E46" s="2"/>
+      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1341,6 +1342,7 @@
         <v>37</v>
       </c>
       <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="4" t="s">

--- a/DbpfLibrary_SerializationTasks.xlsx
+++ b/DbpfLibrary_SerializationTasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whowa\Documents\Visual Studio 2022\Projects\Sims2Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D066A7-3992-45E4-BCB2-F738A4521501}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC143CA1-23D6-4DD1-85EA-051D69AFC3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C40361C-D083-4591-964A-C1B02BD7D2C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
   <si>
     <t>BCON</t>
   </si>
@@ -285,6 +285,12 @@
   </si>
   <si>
     <t>GMDC</t>
+  </si>
+  <si>
+    <t>TEST</t>
+  </si>
+  <si>
+    <t>Hood</t>
   </si>
 </sst>
 </file>
@@ -692,8 +698,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F640CAFF-D0A9-44CF-A502-7EBF160B06D4}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -727,27 +733,31 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>2</v>
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -757,7 +767,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -767,7 +777,7 @@
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -777,7 +787,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
@@ -787,7 +797,7 @@
         <v>2</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -797,7 +807,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -807,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -817,7 +827,7 @@
         <v>2</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
@@ -827,7 +837,7 @@
         <v>2</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -837,7 +847,7 @@
         <v>2</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -847,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
@@ -857,7 +867,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
@@ -867,7 +877,7 @@
         <v>2</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -877,7 +887,7 @@
         <v>2</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -887,7 +897,7 @@
         <v>2</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -897,484 +907,536 @@
         <v>2</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>2</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>55</v>
+      <c r="A23" s="4" t="s">
+        <v>4</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
+      <c r="E25" s="2"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>4</v>
-      </c>
       <c r="E26" s="2"/>
+      <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="2"/>
+      <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>27</v>
+      <c r="A28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>5</v>
+      <c r="A29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="F29" s="1"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>5</v>
+      <c r="A30" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>5</v>
+      <c r="A31" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>11</v>
+      <c r="A32" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="E32" s="2"/>
+      <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>18</v>
+      <c r="A35" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
+      <c r="A36" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E37" s="2"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>79</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>79</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>65</v>
-      </c>
       <c r="E40" s="2"/>
+      <c r="F40" s="1"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>79</v>
-      </c>
-      <c r="B41" t="s">
-        <v>65</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>62</v>
+        <v>34</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>79</v>
-      </c>
-      <c r="B42" t="s">
-        <v>65</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>71</v>
+        <v>34</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>79</v>
-      </c>
-      <c r="B43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C43" t="s">
-        <v>71</v>
-      </c>
-      <c r="D43" s="4" t="s">
-        <v>75</v>
+        <v>34</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>67</v>
+        <v>25</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>68</v>
+        <v>34</v>
+      </c>
+      <c r="B46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B47" s="4" t="s">
-        <v>70</v>
+        <v>34</v>
+      </c>
+      <c r="B47" t="s">
+        <v>30</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>29</v>
       </c>
       <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>79</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>81</v>
+        <v>34</v>
+      </c>
+      <c r="B48" t="s">
+        <v>30</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B49" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>79</v>
-      </c>
-      <c r="B50" t="s">
-        <v>80</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>72</v>
+        <v>34</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>79</v>
-      </c>
-      <c r="B51" t="s">
-        <v>80</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>74</v>
+        <v>34</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>79</v>
-      </c>
-      <c r="B52" t="s">
-        <v>80</v>
-      </c>
-      <c r="C52" s="4" t="s">
-        <v>76</v>
+        <v>34</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>73</v>
+        <v>36</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>79</v>
+        <v>34</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>79</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E55" s="2"/>
+      <c r="F55" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>22</v>
+        <v>65</v>
       </c>
       <c r="E57" s="2"/>
+      <c r="F57" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>34</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>24</v>
+        <v>79</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>34</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="B59" t="s">
+        <v>65</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>71</v>
       </c>
       <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
+      <c r="F59" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>34</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>25</v>
+        <v>79</v>
+      </c>
+      <c r="B60" t="s">
+        <v>65</v>
+      </c>
+      <c r="C60" t="s">
+        <v>71</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>75</v>
       </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
+      <c r="F60" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>34</v>
+        <v>79</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" t="s">
-        <v>30</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>28</v>
+        <v>79</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>34</v>
-      </c>
-      <c r="B63" t="s">
-        <v>30</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>29</v>
+        <v>79</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="E63" s="2"/>
+      <c r="F63" s="1"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>34</v>
-      </c>
-      <c r="B64" t="s">
-        <v>30</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>32</v>
+        <v>79</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>70</v>
       </c>
       <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>34</v>
-      </c>
-      <c r="B65" t="s">
-        <v>30</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>57</v>
+        <v>79</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>34</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>31</v>
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>69</v>
       </c>
       <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>34</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>35</v>
+        <v>79</v>
+      </c>
+      <c r="B67" t="s">
+        <v>80</v>
+      </c>
+      <c r="C67" s="4" t="s">
+        <v>72</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>34</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>36</v>
+        <v>79</v>
+      </c>
+      <c r="B68" t="s">
+        <v>80</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>74</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>34</v>
-      </c>
-      <c r="B69" s="4" t="s">
-        <v>37</v>
+        <v>79</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+      <c r="C69" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" s="4" t="s">
-        <v>14</v>
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
-        <v>43</v>
+      <c r="A71" t="s">
+        <v>79</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>77</v>
       </c>
       <c r="E71" s="2"/>
+      <c r="F71" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="4" t="s">
-        <v>15</v>
+      <c r="A72" t="s">
+        <v>79</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>78</v>
       </c>
       <c r="E72" s="2"/>
+      <c r="F72" s="3" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>44</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>3</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" s="2"/>
@@ -1384,16 +1446,20 @@
         <v>44</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>48</v>
+        <v>3</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="4" t="s">
-        <v>16</v>
+      <c r="A76" t="s">
+        <v>44</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>48</v>
       </c>
       <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" s="4" t="s">
@@ -1421,9 +1487,10 @@
       <c r="F80" s="3"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B81">
-    <sortCondition ref="B2:B81"/>
-    <sortCondition ref="A2:A81"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F80">
+    <sortCondition ref="A2:A80"/>
+    <sortCondition ref="B2:B80"/>
+    <sortCondition ref="C2:C80"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DbpfLibrary_SerializationTasks.xlsx
+++ b/DbpfLibrary_SerializationTasks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whowa\Documents\Visual Studio 2022\Projects\Sims2Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC143CA1-23D6-4DD1-85EA-051D69AFC3EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A57294-26F9-465F-8AED-302E3629B200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C40361C-D083-4591-964A-C1B02BD7D2C7}"/>
   </bookViews>
@@ -297,7 +297,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -330,6 +330,24 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -373,12 +391,14 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -698,8 +718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F640CAFF-D0A9-44CF-A502-7EBF160B06D4}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,7 +766,7 @@
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="E6" s="2"/>
@@ -1062,7 +1082,7 @@
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="6" t="s">
         <v>34</v>
       </c>
       <c r="E40" s="2"/>

--- a/DbpfLibrary_SerializationTasks.xlsx
+++ b/DbpfLibrary_SerializationTasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whowa\Documents\Visual Studio 2022\Projects\Sims2Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72A57294-26F9-465F-8AED-302E3629B200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E5D174-6CF9-4BEA-805A-F14AE8DF380F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C40361C-D083-4591-964A-C1B02BD7D2C7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C40361C-D083-4591-964A-C1B02BD7D2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="95">
   <si>
     <t>BCON</t>
   </si>
@@ -287,17 +287,47 @@
     <t>GMDC</t>
   </si>
   <si>
-    <t>TEST</t>
-  </si>
-  <si>
     <t>Hood</t>
+  </si>
+  <si>
+    <t>GROP</t>
+  </si>
+  <si>
+    <t>AGED</t>
+  </si>
+  <si>
+    <t>CLevelInfo</t>
+  </si>
+  <si>
+    <t>HLS</t>
+  </si>
+  <si>
+    <t>TRKS</t>
+  </si>
+  <si>
+    <t>AUDIO</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>Assert</t>
+  </si>
+  <si>
+    <t>Assignment</t>
+  </si>
+  <si>
+    <t>Indexed</t>
+  </si>
+  <si>
+    <t>Scriptable</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -315,13 +345,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -345,15 +368,14 @@
     </font>
     <font>
       <b/>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF9C5700"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -370,11 +392,6 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -385,25 +402,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -716,802 +733,938 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F640CAFF-D0A9-44CF-A502-7EBF160B06D4}">
-  <dimension ref="A1:F80"/>
+  <dimension ref="B1:K88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80:I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.42578125" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.140625" customWidth="1"/>
+    <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E1" t="s">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G2" s="3" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="I2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="F5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="1"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" s="4" t="s">
+      <c r="F7" s="5"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="2"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="2"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" s="4" t="s">
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="2"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="4" t="s">
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="2"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="2"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" s="4" t="s">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="2"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="2"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="4" t="s">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="2"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4" t="s">
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="2"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="4" t="s">
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="2"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B17" s="4" t="s">
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="2"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="2"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>2</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="4" t="s">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="2"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>2</v>
-      </c>
-      <c r="B21" s="4" t="s">
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="2"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="4" t="s">
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="2"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="2"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+      <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E25" s="2"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B26" s="4" t="s">
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="4" t="s">
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="4" t="s">
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E28" s="2"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B29" s="4" t="s">
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>83</v>
+      </c>
+      <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="4" t="s">
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B31" s="4" t="s">
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="4" t="s">
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
         <v>5</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="C40" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+    </row>
+    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>5</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C41" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+    </row>
+    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B42" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
+      <c r="F42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="2"/>
+    </row>
+    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B43" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="2"/>
+    </row>
+    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="6" t="s">
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
         <v>34</v>
       </c>
-      <c r="E40" s="2"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
         <v>34</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="C46" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
         <v>34</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="C47" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
         <v>34</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="C48" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
         <v>34</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="C49" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
         <v>34</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="C50" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
         <v>34</v>
       </c>
-      <c r="B46" t="s">
+      <c r="C51" t="s">
         <v>30</v>
       </c>
-      <c r="C46" s="4" t="s">
+      <c r="D51" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
         <v>34</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C52" t="s">
         <v>30</v>
       </c>
-      <c r="C47" s="4" t="s">
+      <c r="D52" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
         <v>34</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C53" t="s">
         <v>30</v>
       </c>
-      <c r="C48" s="4" t="s">
+      <c r="D53" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
         <v>34</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C54" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="4" t="s">
+      <c r="D54" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
         <v>34</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="C55" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
         <v>34</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="C56" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
         <v>34</v>
       </c>
-      <c r="B52" s="4" t="s">
+      <c r="C57" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
         <v>34</v>
       </c>
-      <c r="B53" s="4" t="s">
+      <c r="C58" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+      <c r="F58" s="1"/>
+      <c r="G58" s="1"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
         <v>34</v>
       </c>
-      <c r="B54" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E54" s="2"/>
-      <c r="F54" s="2"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>79</v>
-      </c>
-      <c r="B55" s="4" t="s">
+      <c r="F59" s="1"/>
+      <c r="G59" s="1"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>79</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="E55" s="2"/>
-      <c r="F55" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>79</v>
-      </c>
-      <c r="B56" s="4" t="s">
+      <c r="F60" s="1"/>
+      <c r="G60" s="1"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>79</v>
-      </c>
-      <c r="B57" s="4" t="s">
+      <c r="F61" s="1"/>
+      <c r="G61" s="1"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>79</v>
+      </c>
+      <c r="C62" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="E57" s="2"/>
-      <c r="F57" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>79</v>
-      </c>
-      <c r="B58" t="s">
+      <c r="F62" s="1"/>
+      <c r="G62" s="1"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>79</v>
+      </c>
+      <c r="C63" t="s">
         <v>65</v>
       </c>
-      <c r="C58" s="4" t="s">
+      <c r="D63" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>79</v>
-      </c>
-      <c r="B59" t="s">
+      <c r="F63" s="1"/>
+      <c r="G63" s="1"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>79</v>
+      </c>
+      <c r="C64" t="s">
         <v>65</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="D64" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="E59" s="2"/>
-      <c r="F59" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>79</v>
-      </c>
-      <c r="B60" t="s">
+      <c r="F64" s="1"/>
+      <c r="G64" s="1"/>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" t="s">
         <v>65</v>
       </c>
-      <c r="C60" t="s">
+      <c r="D65" t="s">
         <v>71</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="E65" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="E60" s="2"/>
-      <c r="F60" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>79</v>
-      </c>
-      <c r="B61" s="4" t="s">
+      <c r="F65" s="1"/>
+      <c r="G65" s="1"/>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>79</v>
-      </c>
-      <c r="B62" s="4" t="s">
+      <c r="F66" s="1"/>
+      <c r="G66" s="1"/>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="E62" s="2"/>
-      <c r="F62" s="2"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>79</v>
-      </c>
-      <c r="B63" s="4" t="s">
+      <c r="F67" s="1"/>
+      <c r="G67" s="1"/>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+      <c r="C68" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E63" s="2"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>79</v>
-      </c>
-      <c r="B64" s="4" t="s">
+      <c r="F68" s="1"/>
+      <c r="G68" s="1"/>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>79</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F69" s="1"/>
+      <c r="G69" s="1"/>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>79</v>
-      </c>
-      <c r="B65" s="4" t="s">
+      <c r="F70" s="1"/>
+      <c r="G70" s="1"/>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>79</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>79</v>
-      </c>
-      <c r="B66" t="s">
+      <c r="F71" s="1"/>
+      <c r="G71" s="1"/>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="D72" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>79</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="F72" s="1"/>
+      <c r="G72" s="1"/>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" t="s">
         <v>80</v>
       </c>
-      <c r="C67" s="4" t="s">
+      <c r="D73" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>79</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="F73" s="1"/>
+      <c r="G73" s="1"/>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>79</v>
+      </c>
+      <c r="C74" t="s">
         <v>80</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="D74" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>79</v>
-      </c>
-      <c r="B69" t="s">
+      <c r="F74" s="1"/>
+      <c r="G74" s="1"/>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="C75" t="s">
         <v>80</v>
       </c>
-      <c r="C69" s="4" t="s">
+      <c r="D75" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>79</v>
-      </c>
-      <c r="B70" s="4" t="s">
+      <c r="F75" s="1"/>
+      <c r="G75" s="1"/>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>79</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>79</v>
-      </c>
-      <c r="B71" s="4" t="s">
+      <c r="F76" s="1"/>
+      <c r="G76" s="1"/>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>79</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>79</v>
-      </c>
-      <c r="B72" s="4" t="s">
+      <c r="F77" s="1"/>
+      <c r="G77" s="1"/>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="4" t="s">
+      <c r="F78" s="1"/>
+      <c r="G78" s="1"/>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="4" t="s">
+      <c r="F79" s="1"/>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
+      <c r="F80" s="1"/>
+      <c r="G80" s="1"/>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
         <v>44</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="C81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="F81" s="1"/>
+      <c r="G81" s="1"/>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>44</v>
       </c>
-      <c r="B76" s="4" t="s">
+      <c r="C82" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="4" t="s">
+      <c r="F82" s="1"/>
+      <c r="G82" s="1"/>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B83" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="4" t="s">
+      <c r="F83" s="1"/>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B84" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="E78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="F84" s="1"/>
+    </row>
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B85" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="4" t="s">
+      <c r="F85" s="1"/>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="3"/>
+      <c r="F86" s="1"/>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B87" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F87" s="1"/>
+      <c r="G87" s="1"/>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>90</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F88" s="1"/>
+      <c r="G88" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F80">
-    <sortCondition ref="A2:A80"/>
-    <sortCondition ref="B2:B80"/>
-    <sortCondition ref="C2:C80"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:G86">
+    <sortCondition ref="B4:B86"/>
+    <sortCondition ref="C4:C86"/>
+    <sortCondition ref="D4:D86"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="I1:K1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DbpfLibrary_SerializationTasks.xlsx
+++ b/DbpfLibrary_SerializationTasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whowa\Documents\Visual Studio 2022\Projects\Sims2Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7E5D174-6CF9-4BEA-805A-F14AE8DF380F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7FDFE7-209C-4175-85C3-1BA1566C7327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C40361C-D083-4591-964A-C1B02BD7D2C7}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C40361C-D083-4591-964A-C1B02BD7D2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="194">
   <si>
     <t>BCON</t>
   </si>
@@ -321,13 +321,310 @@
   </si>
   <si>
     <t>Scriptable</t>
+  </si>
+  <si>
+    <t>0x42434F4E</t>
+  </si>
+  <si>
+    <t>0x42484156</t>
+  </si>
+  <si>
+    <t>0x43494745</t>
+  </si>
+  <si>
+    <t>0xE86B1EEF</t>
+  </si>
+  <si>
+    <t>0x43545353</t>
+  </si>
+  <si>
+    <t>0x474C4F42</t>
+  </si>
+  <si>
+    <t>0x54535053</t>
+  </si>
+  <si>
+    <t>0x856DDBAC</t>
+  </si>
+  <si>
+    <t>0x8C3CE95A</t>
+  </si>
+  <si>
+    <t>0xAC2950C1</t>
+  </si>
+  <si>
+    <t>0xF03D464C</t>
+  </si>
+  <si>
+    <t>0xCC48C51F</t>
+  </si>
+  <si>
+    <t>0x2C488BCA</t>
+  </si>
+  <si>
+    <t>0x2C30E040</t>
+  </si>
+  <si>
+    <t>0xCC30CDF8</t>
+  </si>
+  <si>
+    <t>0x8C311262</t>
+  </si>
+  <si>
+    <t>0x2C43CBD4</t>
+  </si>
+  <si>
+    <t>0xCC44B5EC</t>
+  </si>
+  <si>
+    <t>0xCC489E46</t>
+  </si>
+  <si>
+    <t>0xEC3126C4</t>
+  </si>
+  <si>
+    <t>0x8C31125E</t>
+  </si>
+  <si>
+    <t>Object</t>
+  </si>
+  <si>
+    <t>Awning</t>
+  </si>
+  <si>
+    <t>Chimney</t>
+  </si>
+  <si>
+    <t>Dormer</t>
+  </si>
+  <si>
+    <t>FenceArch</t>
+  </si>
+  <si>
+    <t>FenceOrHalfwall</t>
+  </si>
+  <si>
+    <t>Floor</t>
+  </si>
+  <si>
+    <t>FoundationOrPool</t>
+  </si>
+  <si>
+    <t>ModularStair</t>
+  </si>
+  <si>
+    <t>Roof</t>
+  </si>
+  <si>
+    <t>Terrain</t>
+  </si>
+  <si>
+    <t>Wall</t>
+  </si>
+  <si>
+    <t>0x104F6A6E</t>
+  </si>
+  <si>
+    <t>0x46414D49</t>
+  </si>
+  <si>
+    <t>0x8C870743</t>
+  </si>
+  <si>
+    <t>0xAC8A7A2E</t>
+  </si>
+  <si>
+    <t>0x0BF999E7</t>
+  </si>
+  <si>
+    <t>0x4E474248</t>
+  </si>
+  <si>
+    <t>0xEBFEE33F</t>
+  </si>
+  <si>
+    <t>0xAACE2EFB</t>
+  </si>
+  <si>
+    <t>0xCC364C2A</t>
+  </si>
+  <si>
+    <t>0xCD95548E</t>
+  </si>
+  <si>
+    <t>XNGB</t>
+  </si>
+  <si>
+    <t>0x6D619378</t>
+  </si>
+  <si>
+    <t>0x4E524546</t>
+  </si>
+  <si>
+    <t>0x4F424A44</t>
+  </si>
+  <si>
+    <t>0x4F424A66</t>
+  </si>
+  <si>
+    <t>0xAC598EAC</t>
+  </si>
+  <si>
+    <t>0xFB00791E</t>
+  </si>
+  <si>
+    <t>0x0C560F39</t>
+  </si>
+  <si>
+    <t>0x4D51F042</t>
+  </si>
+  <si>
+    <t>0x6C4F359D</t>
+  </si>
+  <si>
+    <t>0xE519C933</t>
+  </si>
+  <si>
+    <t>0xAC4F8687</t>
+  </si>
+  <si>
+    <t>0x7BA3838C</t>
+  </si>
+  <si>
+    <t>0xEBCF3E27</t>
+  </si>
+  <si>
+    <t>0xAC506764</t>
+  </si>
+  <si>
+    <t>0xC9C81B9B</t>
+  </si>
+  <si>
+    <t>0xC9C81BA3</t>
+  </si>
+  <si>
+    <t>0xED534136</t>
+  </si>
+  <si>
+    <t>0xC9C81BA9</t>
+  </si>
+  <si>
+    <t>0xC9C81BAD</t>
+  </si>
+  <si>
+    <t>0x4C697E5A</t>
+  </si>
+  <si>
+    <t>0xFC6EB1F7</t>
+  </si>
+  <si>
+    <t>0x49596978</t>
+  </si>
+  <si>
+    <t>0x1C4A276C</t>
+  </si>
+  <si>
+    <t>0x8C93E35C</t>
+  </si>
+  <si>
+    <t>0x8C1580B5</t>
+  </si>
+  <si>
+    <t>0x0C1FE246</t>
+  </si>
+  <si>
+    <t>0x4C158081</t>
+  </si>
+  <si>
+    <t>0x2C1FD8A1</t>
+  </si>
+  <si>
+    <t>0x534C4F54</t>
+  </si>
+  <si>
+    <t>0x2026960B</t>
+  </si>
+  <si>
+    <t>0x7B1ACFCD</t>
+  </si>
+  <si>
+    <t>0x0B9EB87E</t>
+  </si>
+  <si>
+    <t>0x53545223</t>
+  </si>
+  <si>
+    <t>0x54505250</t>
+  </si>
+  <si>
+    <t>0x5452434E</t>
+  </si>
+  <si>
+    <t>0x54544142</t>
+  </si>
+  <si>
+    <t>0x54544173</t>
+  </si>
+  <si>
+    <t>0x00000000</t>
+  </si>
+  <si>
+    <t>0xEBFEE342</t>
+  </si>
+  <si>
+    <t>0x4DCADB7E</t>
+  </si>
+  <si>
+    <t>0x2CB230B8</t>
+  </si>
+  <si>
+    <t>0xCCA8E925</t>
+  </si>
+  <si>
+    <t>0xACA8EA06</t>
+  </si>
+  <si>
+    <t>0xED7D7B4D</t>
+  </si>
+  <si>
+    <t>0xE9075BC5</t>
+  </si>
+  <si>
+    <t>0x6A836D56</t>
+  </si>
+  <si>
+    <t>0x253D2018</t>
+  </si>
+  <si>
+    <t>0x65245517</t>
+  </si>
+  <si>
+    <t>0x65246462</t>
+  </si>
+  <si>
+    <t>0x0C152B8E</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>a) assignment to a non-existent property will create that property</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>b) indexing a non-existent entry will create all missing entries up and including that entry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,8 +671,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -392,6 +704,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -402,25 +719,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -733,10 +1054,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F640CAFF-D0A9-44CF-A502-7EBF160B06D4}">
-  <dimension ref="B1:K88"/>
+  <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80:I82"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -746,923 +1067,1419 @@
     <col min="3" max="3" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.42578125" customWidth="1"/>
-    <col min="6" max="6" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="I1" s="6" t="s">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="K1" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-    </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="F2" s="3" t="s">
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+    </row>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H2" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="N2" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>168</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
+      <c r="F4" t="s">
+        <v>95</v>
+      </c>
+      <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
       <c r="K4" s="1"/>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L4" s="2"/>
+      <c r="M4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="2"/>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="1"/>
       <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="L5" s="2"/>
+      <c r="M5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H7" s="5"/>
+      <c r="I7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K8" s="1"/>
+      <c r="L8" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>2</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+      <c r="F9" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K9" s="1"/>
+      <c r="L9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M9" s="2"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+      <c r="F10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="2"/>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K10" s="1"/>
+      <c r="L10" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M10" s="2"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="1"/>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="2"/>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M11" s="2"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
+      <c r="F12" t="s">
+        <v>151</v>
+      </c>
+      <c r="H12" s="1"/>
       <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="2"/>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M12" s="2"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
+      <c r="F13" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K13" s="1"/>
+      <c r="L13" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M13" s="2"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+      <c r="F14" t="s">
+        <v>134</v>
+      </c>
+      <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K14" s="1"/>
+      <c r="L14" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M14" s="2"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>2</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+      <c r="F15" t="s">
+        <v>177</v>
+      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="2"/>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M15" s="2"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>2</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+      <c r="F16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H16" s="1"/>
       <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="2"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K16" s="1"/>
+      <c r="L16" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M16" s="2"/>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>2</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+      <c r="F17" t="s">
+        <v>178</v>
+      </c>
+      <c r="H17" s="1"/>
       <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="2"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>2</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+      <c r="F18" t="s">
+        <v>179</v>
+      </c>
+      <c r="H18" s="1"/>
       <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="2"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M18" s="2"/>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>2</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+      <c r="F19" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="1"/>
       <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="2"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M19" s="2"/>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>2</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+      <c r="F20" t="s">
+        <v>164</v>
+      </c>
+      <c r="H20" s="1"/>
       <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="2"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="1"/>
+      <c r="L20" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M20" s="2"/>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>2</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+      <c r="F21" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="2"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="1"/>
+      <c r="L21" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M21" s="2"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>2</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+      <c r="F22" t="s">
+        <v>181</v>
+      </c>
+      <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="2"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M22" s="2"/>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>2</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+      <c r="F23" t="s">
+        <v>165</v>
+      </c>
+      <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="2"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M23" s="2"/>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>2</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+      <c r="F24" t="s">
+        <v>166</v>
+      </c>
+      <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="2"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M24" s="2"/>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>2</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+      <c r="F25" t="s">
+        <v>182</v>
+      </c>
+      <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="2"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="1"/>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B27" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" s="1"/>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F28" t="s">
+        <v>169</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>83</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="1"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>83</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>129</v>
+      </c>
+      <c r="H30" s="1"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>83</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>130</v>
+      </c>
+      <c r="H31" s="1"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>83</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>83</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>132</v>
+      </c>
+      <c r="H33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>83</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>83</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>135</v>
+      </c>
+      <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>136</v>
+      </c>
+      <c r="H36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>83</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B38" s="3" t="s">
+      <c r="F37" t="s">
+        <v>137</v>
+      </c>
+      <c r="H37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B39" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B39" s="3" t="s">
+      <c r="F39" t="s">
+        <v>152</v>
+      </c>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="N39" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B40" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F40" t="s">
+        <v>102</v>
+      </c>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F41" t="s">
+        <v>103</v>
+      </c>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B42" s="3" t="s">
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F43" t="s">
+        <v>104</v>
+      </c>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" t="s">
+        <v>105</v>
+      </c>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F45" t="s">
+        <v>106</v>
+      </c>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>5</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F48" t="s">
+        <v>109</v>
+      </c>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+    </row>
+    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="F49" t="s">
+        <v>110</v>
+      </c>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+    </row>
+    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>5</v>
+      </c>
+      <c r="C50" t="s">
+        <v>7</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F50" t="s">
+        <v>111</v>
+      </c>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+    </row>
+    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>5</v>
+      </c>
+      <c r="C51" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F51" t="s">
+        <v>112</v>
+      </c>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+    </row>
+    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>5</v>
+      </c>
+      <c r="C52" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F52" t="s">
+        <v>113</v>
+      </c>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+    </row>
+    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" t="s">
+        <v>7</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F53" t="s">
+        <v>114</v>
+      </c>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+    </row>
+    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F54" t="s">
+        <v>115</v>
+      </c>
+      <c r="H54" s="1"/>
+      <c r="I54" s="1"/>
+    </row>
+    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B55" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="2"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B43" s="3" t="s">
+      <c r="F55" t="s">
+        <v>140</v>
+      </c>
+      <c r="H55" s="1"/>
+      <c r="I55" s="1"/>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="2"/>
+    </row>
+    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B56" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="2"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B44" s="3" t="s">
+      <c r="F56" t="s">
+        <v>141</v>
+      </c>
+      <c r="H56" s="1"/>
+      <c r="I56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="2"/>
+    </row>
+    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
+      <c r="F57" t="s">
+        <v>142</v>
+      </c>
+      <c r="H57" s="1"/>
+    </row>
+    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B58" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>34</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>34</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-    </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>34</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-    </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-    </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C54" t="s">
-        <v>30</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>34</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>34</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>34</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="F57" s="1"/>
-      <c r="G57" s="1"/>
-    </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="1"/>
-    </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="1"/>
+    </row>
+    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>34</v>
       </c>
       <c r="C59" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H59" s="1"/>
+    </row>
+    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" t="s">
+        <v>146</v>
+      </c>
+      <c r="H60" s="1"/>
+    </row>
+    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>34</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F61" t="s">
+        <v>148</v>
+      </c>
+      <c r="H61" s="1"/>
+      <c r="I61" s="1"/>
+    </row>
+    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F62" t="s">
+        <v>149</v>
+      </c>
+      <c r="H62" s="1"/>
+      <c r="I62" s="1"/>
+    </row>
+    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>34</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F63" t="s">
+        <v>150</v>
+      </c>
+      <c r="H63" s="1"/>
+      <c r="I63" s="1"/>
+    </row>
+    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H64" s="1"/>
+    </row>
+    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" t="s">
+        <v>30</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F65" t="s">
+        <v>153</v>
+      </c>
+      <c r="H65" s="1"/>
+    </row>
+    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" t="s">
+        <v>30</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F66" t="s">
+        <v>154</v>
+      </c>
+      <c r="H66" s="1"/>
+    </row>
+    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" t="s">
+        <v>30</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F67" t="s">
+        <v>156</v>
+      </c>
+      <c r="H67" s="1"/>
+    </row>
+    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>34</v>
+      </c>
+      <c r="C68" t="s">
+        <v>30</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F68" t="s">
+        <v>157</v>
+      </c>
+      <c r="H68" s="1"/>
+    </row>
+    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F69" t="s">
+        <v>155</v>
+      </c>
+      <c r="H69" s="1"/>
+      <c r="I69" s="7"/>
+    </row>
+    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F70" t="s">
+        <v>159</v>
+      </c>
+      <c r="H70" s="1"/>
+      <c r="I70" s="1"/>
+    </row>
+    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F71" t="s">
+        <v>160</v>
+      </c>
+      <c r="H71" s="1"/>
+      <c r="I71" s="1"/>
+    </row>
+    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="1"/>
-    </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>79</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="F60" s="1"/>
-      <c r="G60" s="1"/>
-    </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="1"/>
-    </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>79</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="1"/>
-    </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>79</v>
-      </c>
-      <c r="C63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="1"/>
-    </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>79</v>
-      </c>
-      <c r="C64" t="s">
-        <v>65</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="F64" s="1"/>
-      <c r="G64" s="1"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>79</v>
-      </c>
-      <c r="C65" t="s">
-        <v>65</v>
-      </c>
-      <c r="D65" t="s">
-        <v>71</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F65" s="1"/>
-      <c r="G65" s="1"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>79</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F66" s="1"/>
-      <c r="G66" s="1"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>79</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="1"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>79</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="1"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>79</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="1"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>79</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="1"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>79</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="1"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>79</v>
-      </c>
-      <c r="C72" t="s">
-        <v>80</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="1"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F72" t="s">
+        <v>161</v>
+      </c>
+      <c r="H72" s="1"/>
+      <c r="I72" s="1"/>
+    </row>
+    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>79</v>
       </c>
-      <c r="C73" t="s">
-        <v>80</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="1"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C73" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F73" t="s">
+        <v>183</v>
+      </c>
+      <c r="H73" s="1"/>
+      <c r="I73" s="1"/>
+    </row>
+    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>79</v>
       </c>
-      <c r="C74" t="s">
-        <v>80</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="1"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C74" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F74" t="s">
+        <v>184</v>
+      </c>
+      <c r="H74" s="1"/>
+      <c r="I74" s="1"/>
+    </row>
+    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>79</v>
       </c>
-      <c r="C75" t="s">
-        <v>80</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F75" s="1"/>
-      <c r="G75" s="1"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C75" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F75" t="s">
+        <v>154</v>
+      </c>
+      <c r="H75" s="1"/>
+      <c r="I75" s="1"/>
+    </row>
+    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>79</v>
       </c>
-      <c r="C76" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="F76" s="1"/>
-      <c r="G76" s="1"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C76" t="s">
+        <v>65</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F76" t="s">
+        <v>153</v>
+      </c>
+      <c r="H76" s="1"/>
+      <c r="I76" s="1"/>
+    </row>
+    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>79</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="F77" s="1"/>
-      <c r="G77" s="1"/>
-    </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C77" t="s">
+        <v>65</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F77" t="s">
+        <v>156</v>
+      </c>
+      <c r="H77" s="1"/>
+      <c r="I77" s="1"/>
+    </row>
+    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" t="s">
+        <v>65</v>
+      </c>
+      <c r="D78" t="s">
+        <v>71</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F78" t="s">
+        <v>157</v>
+      </c>
+      <c r="G78" s="3"/>
+      <c r="H78" s="1"/>
+      <c r="I78" s="1"/>
+    </row>
+    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F79" t="s">
+        <v>149</v>
+      </c>
+      <c r="H79" s="1"/>
+      <c r="I79" s="1"/>
+    </row>
+    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F80" t="s">
+        <v>150</v>
+      </c>
+      <c r="H80" s="1"/>
+      <c r="I80" s="1"/>
+    </row>
+    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>79</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F81" t="s">
+        <v>161</v>
+      </c>
+      <c r="H81" s="1"/>
+      <c r="I81" s="1"/>
+    </row>
+    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>79</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F82" t="s">
+        <v>155</v>
+      </c>
+      <c r="H82" s="1"/>
+      <c r="I82" s="1"/>
+    </row>
+    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F83" t="s">
+        <v>160</v>
+      </c>
+      <c r="H83" s="1"/>
+      <c r="I83" s="1"/>
+    </row>
+    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>79</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="H84" s="1"/>
+      <c r="I84" s="1"/>
+    </row>
+    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>79</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F85" t="s">
+        <v>185</v>
+      </c>
+      <c r="H85" s="1"/>
+      <c r="I85" s="1"/>
+    </row>
+    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>79</v>
+      </c>
+      <c r="C86" t="s">
+        <v>80</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F86" t="s">
+        <v>148</v>
+      </c>
+      <c r="H86" s="1"/>
+      <c r="I86" s="1"/>
+    </row>
+    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>79</v>
+      </c>
+      <c r="C87" t="s">
+        <v>80</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="F87" t="s">
+        <v>186</v>
+      </c>
+      <c r="H87" s="1"/>
+      <c r="I87" s="1"/>
+    </row>
+    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>79</v>
+      </c>
+      <c r="C88" t="s">
+        <v>80</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="F88" t="s">
+        <v>187</v>
+      </c>
+      <c r="H88" s="1"/>
+      <c r="I88" s="1"/>
+    </row>
+    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>79</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F89" t="s">
+        <v>159</v>
+      </c>
+      <c r="H89" s="1"/>
+      <c r="I89" s="1"/>
+    </row>
+    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>79</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F90" t="s">
+        <v>150</v>
+      </c>
+      <c r="H90" s="1"/>
+      <c r="I90" s="1"/>
+    </row>
+    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F78" s="1"/>
-      <c r="G78" s="1"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B79" s="3" t="s">
+      <c r="F91" t="s">
+        <v>188</v>
+      </c>
+      <c r="H91" s="1"/>
+      <c r="I91" s="1"/>
+    </row>
+    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B92" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F79" s="1"/>
-    </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B80" s="3" t="s">
+      <c r="F92" t="s">
+        <v>167</v>
+      </c>
+      <c r="H92" s="1"/>
+    </row>
+    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B93" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="F80" s="1"/>
-      <c r="G80" s="1"/>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
-      <c r="K80" s="1"/>
-    </row>
-    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B81" t="s">
+      <c r="F93" t="s">
+        <v>171</v>
+      </c>
+      <c r="H93" s="1"/>
+      <c r="I93" s="1"/>
+      <c r="K93" s="1"/>
+      <c r="L93" s="1"/>
+      <c r="M93" s="1"/>
+    </row>
+    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
         <v>44</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F81" s="1"/>
-      <c r="G81" s="1"/>
-      <c r="I81" s="1"/>
-      <c r="J81" s="1"/>
-      <c r="K81" s="1"/>
-    </row>
-    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
+      <c r="F94" t="s">
+        <v>99</v>
+      </c>
+      <c r="H94" s="1"/>
+      <c r="I94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+    </row>
+    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
         <v>44</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C95" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F82" s="1"/>
-      <c r="G82" s="1"/>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-      <c r="K82" s="1"/>
-    </row>
-    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B83" s="3" t="s">
+      <c r="F95" t="s">
+        <v>175</v>
+      </c>
+      <c r="H95" s="1"/>
+      <c r="I95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+    </row>
+    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B96" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="F83" s="1"/>
-    </row>
-    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B84" s="3" t="s">
+      <c r="F96" t="s">
+        <v>172</v>
+      </c>
+      <c r="H96" s="1"/>
+    </row>
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B97" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F84" s="1"/>
-    </row>
-    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B85" s="3" t="s">
+      <c r="F97" t="s">
+        <v>173</v>
+      </c>
+      <c r="H97" s="1"/>
+    </row>
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B98" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F85" s="1"/>
-    </row>
-    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B86" s="3" t="s">
+      <c r="F98" t="s">
+        <v>174</v>
+      </c>
+      <c r="H98" s="1"/>
+    </row>
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B99" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F86" s="1"/>
-    </row>
-    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B87" s="3" t="s">
+      <c r="F99" t="s">
+        <v>176</v>
+      </c>
+      <c r="H99" s="1"/>
+    </row>
+    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B100" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F87" s="1"/>
-      <c r="G87" s="1"/>
-    </row>
-    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B88" t="s">
+      <c r="H100" s="1"/>
+      <c r="I100" s="1"/>
+    </row>
+    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
         <v>90</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C101" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F88" s="1"/>
-      <c r="G88" s="1"/>
+      <c r="F101" t="s">
+        <v>170</v>
+      </c>
+      <c r="H101" s="1"/>
+      <c r="I101" s="1"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:G86">
-    <sortCondition ref="B4:B86"/>
-    <sortCondition ref="C4:C86"/>
-    <sortCondition ref="D4:D86"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:I99">
+    <sortCondition ref="B4:B99"/>
+    <sortCondition ref="C4:C99"/>
+    <sortCondition ref="D4:D99"/>
   </sortState>
   <mergeCells count="1">
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/DbpfLibrary_SerializationTasks.xlsx
+++ b/DbpfLibrary_SerializationTasks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whowa\Documents\Visual Studio 2022\Projects\Sims2Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B7FDFE7-209C-4175-85C3-1BA1566C7327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51E5C99-A18D-4135-A846-FEFF35B0C76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C40361C-D083-4591-964A-C1B02BD7D2C7}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="197">
   <si>
     <t>BCON</t>
   </si>
@@ -614,17 +614,26 @@
     <t>a) assignment to a non-existent property will create that property</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
     <t>b) indexing a non-existent entry will create all missing entries up and including that entry</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>+ Inst</t>
+  </si>
+  <si>
+    <t>b, c</t>
+  </si>
+  <si>
+    <t>c) supports + as the index number to mean "add a new entry"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -679,15 +688,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,11 +706,6 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -719,11 +716,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -733,15 +729,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="3">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1056,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F640CAFF-D0A9-44CF-A502-7EBF160B06D4}">
   <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="L58" sqref="L58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,8 +1116,15 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="1"/>
+      <c r="L4" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="N4" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
@@ -1133,8 +1135,15 @@
       </c>
       <c r="H5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="1"/>
+      <c r="L5" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M5" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="N5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
@@ -1166,7 +1175,9 @@
       <c r="L8" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="N8" t="s">
         <v>191</v>
       </c>
@@ -1187,7 +1198,9 @@
       <c r="L9" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1205,7 +1218,9 @@
       <c r="L10" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1223,7 +1238,9 @@
       <c r="L11" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -1241,7 +1258,9 @@
       <c r="L12" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1259,7 +1278,9 @@
       <c r="L13" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -1277,7 +1298,9 @@
       <c r="L14" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1295,7 +1318,9 @@
       <c r="L15" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1313,7 +1338,9 @@
       <c r="L16" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
@@ -1331,7 +1358,9 @@
       <c r="L17" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -1349,7 +1378,9 @@
       <c r="L18" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -1367,7 +1398,9 @@
       <c r="L19" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
@@ -1385,7 +1418,9 @@
       <c r="L20" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -1403,7 +1438,9 @@
       <c r="L21" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
@@ -1421,7 +1458,9 @@
       <c r="L22" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
@@ -1439,7 +1478,9 @@
       <c r="L23" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
@@ -1457,7 +1498,9 @@
       <c r="L24" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -1475,7 +1518,9 @@
       <c r="L25" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B26" s="3" t="s">
@@ -1553,7 +1598,7 @@
       </c>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>83</v>
       </c>
@@ -1565,7 +1610,7 @@
       </c>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>83</v>
       </c>
@@ -1577,7 +1622,7 @@
       </c>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>83</v>
       </c>
@@ -1589,7 +1634,7 @@
       </c>
       <c r="H35" s="1"/>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>83</v>
       </c>
@@ -1601,7 +1646,7 @@
       </c>
       <c r="H36" s="1"/>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>83</v>
       </c>
@@ -1613,7 +1658,7 @@
       </c>
       <c r="H37" s="1"/>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>83</v>
       </c>
@@ -1625,7 +1670,7 @@
       </c>
       <c r="H38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B39" s="3" t="s">
         <v>27</v>
       </c>
@@ -1637,13 +1682,10 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="N39" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B40" s="3" t="s">
         <v>5</v>
       </c>
@@ -1653,7 +1695,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>5</v>
       </c>
@@ -1666,7 +1708,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>5</v>
       </c>
@@ -1676,7 +1718,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>5</v>
       </c>
@@ -1692,7 +1734,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>5</v>
       </c>
@@ -1708,7 +1750,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>5</v>
       </c>
@@ -1724,7 +1766,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>5</v>
       </c>
@@ -1740,7 +1782,7 @@
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>5</v>
       </c>
@@ -1756,7 +1798,7 @@
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>5</v>
       </c>
@@ -1877,9 +1919,13 @@
       </c>
       <c r="H55" s="1"/>
       <c r="I55" s="1"/>
-      <c r="K55" s="1"/>
+      <c r="K55" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="L55" s="1"/>
-      <c r="M55" s="2"/>
+      <c r="M55" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="56" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B56" s="3" t="s">
@@ -1892,7 +1938,9 @@
       <c r="I56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
-      <c r="M56" s="2"/>
+      <c r="M56" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="57" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B57" s="3" t="s">
@@ -1908,6 +1956,13 @@
         <v>34</v>
       </c>
       <c r="H58" s="1"/>
+      <c r="K58" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="59" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
@@ -1920,6 +1975,13 @@
         <v>144</v>
       </c>
       <c r="H59" s="1"/>
+      <c r="K59" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L59" s="1"/>
+      <c r="M59" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="60" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
@@ -1932,6 +1994,13 @@
         <v>146</v>
       </c>
       <c r="H60" s="1"/>
+      <c r="K60" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L60" s="1"/>
+      <c r="M60" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="61" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
@@ -1945,6 +2014,11 @@
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1"/>
+      <c r="K61" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L61" s="1"/>
+      <c r="M61" s="1"/>
     </row>
     <row r="62" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
@@ -1958,6 +2032,13 @@
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1"/>
+      <c r="K62" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="2" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="63" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
@@ -1971,6 +2052,11 @@
       </c>
       <c r="H63" s="1"/>
       <c r="I63" s="1"/>
+      <c r="K63" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
     </row>
     <row r="64" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
@@ -1980,8 +2066,15 @@
         <v>30</v>
       </c>
       <c r="H64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K64" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
         <v>34</v>
       </c>
@@ -1995,8 +2088,15 @@
         <v>153</v>
       </c>
       <c r="H65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K65" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
         <v>34</v>
       </c>
@@ -2010,8 +2110,15 @@
         <v>154</v>
       </c>
       <c r="H66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K66" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
         <v>34</v>
       </c>
@@ -2025,8 +2132,15 @@
         <v>156</v>
       </c>
       <c r="H67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K67" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
         <v>34</v>
       </c>
@@ -2040,8 +2154,15 @@
         <v>157</v>
       </c>
       <c r="H68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K68" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L68" s="1"/>
+      <c r="M68" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
         <v>34</v>
       </c>
@@ -2052,9 +2173,16 @@
         <v>155</v>
       </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="7"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I69" s="1"/>
+      <c r="K69" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L69" s="1"/>
+      <c r="M69" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
         <v>34</v>
       </c>
@@ -2066,8 +2194,13 @@
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K70" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
         <v>34</v>
       </c>
@@ -2079,8 +2212,15 @@
       </c>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K71" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L71" s="1"/>
+      <c r="M71" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
         <v>34</v>
       </c>
@@ -2092,8 +2232,15 @@
       </c>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K72" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L72" s="1"/>
+      <c r="M72" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
         <v>79</v>
       </c>
@@ -2106,7 +2253,7 @@
       <c r="H73" s="1"/>
       <c r="I73" s="1"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
         <v>79</v>
       </c>
@@ -2119,7 +2266,7 @@
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
         <v>79</v>
       </c>
@@ -2132,7 +2279,7 @@
       <c r="H75" s="1"/>
       <c r="I75" s="1"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
         <v>79</v>
       </c>
@@ -2148,7 +2295,7 @@
       <c r="H76" s="1"/>
       <c r="I76" s="1"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
         <v>79</v>
       </c>
@@ -2164,7 +2311,7 @@
       <c r="H77" s="1"/>
       <c r="I77" s="1"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
         <v>79</v>
       </c>
@@ -2184,7 +2331,7 @@
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
         <v>79</v>
       </c>
@@ -2197,7 +2344,7 @@
       <c r="H79" s="1"/>
       <c r="I79" s="1"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>79</v>
       </c>
@@ -2382,7 +2529,9 @@
       <c r="I93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
-      <c r="M93" s="1"/>
+      <c r="M93" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="94" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
@@ -2398,7 +2547,9 @@
       <c r="I94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
-      <c r="M94" s="1"/>
+      <c r="M94" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="95" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
@@ -2414,7 +2565,9 @@
       <c r="I95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
-      <c r="M95" s="1"/>
+      <c r="M95" s="1" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="96" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B96" s="3" t="s">
@@ -2424,8 +2577,9 @@
         <v>172</v>
       </c>
       <c r="H96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I96" s="2"/>
+    </row>
+    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
         <v>46</v>
       </c>
@@ -2433,8 +2587,18 @@
         <v>173</v>
       </c>
       <c r="H97" s="1"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="I97" s="2"/>
+      <c r="K97" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="M97" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B98" s="3" t="s">
         <v>47</v>
       </c>
@@ -2443,7 +2607,7 @@
       </c>
       <c r="H98" s="1"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
         <v>49</v>
       </c>
@@ -2452,14 +2616,14 @@
       </c>
       <c r="H99" s="1"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B100" s="4" t="s">
         <v>90</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
         <v>90</v>
       </c>

--- a/DbpfLibrary_SerializationTasks.xlsx
+++ b/DbpfLibrary_SerializationTasks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whowa\Documents\Visual Studio 2022\Projects\Sims2Tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51E5C99-A18D-4135-A846-FEFF35B0C76C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AB81754-BEF6-49D3-8ABC-DD62104FDD13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{4C40361C-D083-4591-964A-C1B02BD7D2C7}"/>
+    <workbookView xWindow="345" yWindow="435" windowWidth="28110" windowHeight="14700" xr2:uid="{4C40361C-D083-4591-964A-C1B02BD7D2C7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="199">
   <si>
     <t>BCON</t>
   </si>
@@ -627,13 +627,19 @@
   </si>
   <si>
     <t>c) supports + as the index number to mean "add a new entry"</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>d) use CLONE to add new entries</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -688,8 +694,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -706,6 +719,11 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -716,12 +734,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
@@ -733,10 +752,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1051,8 +1072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F640CAFF-D0A9-44CF-A502-7EBF160B06D4}">
   <dimension ref="B1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="L58" sqref="L58"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1066,6 +1087,7 @@
     <col min="7" max="7" width="4.7109375" customWidth="1"/>
     <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="82.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
@@ -1116,9 +1138,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="L4" s="1"/>
       <c r="M4" s="1" t="s">
         <v>195</v>
       </c>
@@ -1135,9 +1155,7 @@
       </c>
       <c r="H5" s="1"/>
       <c r="K5" s="1"/>
-      <c r="L5" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="L5" s="1"/>
       <c r="M5" s="7" t="s">
         <v>194</v>
       </c>
@@ -1154,6 +1172,9 @@
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
+      <c r="N6" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="3" t="s">
@@ -2577,7 +2598,7 @@
         <v>172</v>
       </c>
       <c r="H96" s="1"/>
-      <c r="I96" s="2"/>
+      <c r="I96" s="9"/>
     </row>
     <row r="97" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B97" s="3" t="s">
@@ -2587,13 +2608,11 @@
         <v>173</v>
       </c>
       <c r="H97" s="1"/>
-      <c r="I97" s="2"/>
+      <c r="I97" s="1"/>
       <c r="K97" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="L97" s="2" t="s">
-        <v>193</v>
-      </c>
+      <c r="L97" s="1"/>
       <c r="M97" s="1" t="s">
         <v>195</v>
       </c>
@@ -2606,6 +2625,14 @@
         <v>174</v>
       </c>
       <c r="H98" s="1"/>
+      <c r="I98" s="1"/>
+      <c r="K98" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="99" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B99" s="3" t="s">
